--- a/temp_doc/DATA POST GAMBAR.xlsx
+++ b/temp_doc/DATA POST GAMBAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webth\temp_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF01B2D-732E-4F62-A7A2-9924BCC9BE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E6D35-0254-3847-8C4D-1E8508362D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id_gambar_post</t>
   </si>
@@ -47,76 +47,28 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=128oitiGdsxx7CEkVdbWi1zEdmiZ8mMC7</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=156Je9_e9AvXFij6f0f0dzpK1gcIMtWXR</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=17iLb0c_kwuW-SEOhxX-TiHtWaaei7Q4K</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1N52a6MsYNQ45MwO3zjSnuBgQ6FLhz_qD</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1NlaLzuxjiPKXaKqWa1UVTrYHociq7R8f</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1PxbywEPLD1yisdSt7hA_FJp6McJaVLkN</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1TuYdvQGMsNVV-jpB64YZFuX1-iBh3IRA</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1Tw9prk2TjjiCwgRVaY1pRcVqgqSj69OU</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1U7Gvy82B4NZv3CJAVxheeOAUx7M7qSMO</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1W_AGHco7MYHcOhnfQOVNbeZ-EocQMJpJ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1c6XrJrayDooQJBBivvZj9AkYCq6v3HSr</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1ptbGD-fdugrPiEYdnBZYQsYezz3kVh3o</t>
-  </si>
-  <si>
-    <t>1012913</t>
-  </si>
-  <si>
-    <t>1023475</t>
-  </si>
-  <si>
-    <t>1033004</t>
-  </si>
-  <si>
-    <t>1048771</t>
-  </si>
-  <si>
-    <t>1052783</t>
-  </si>
-  <si>
-    <t>1067190</t>
-  </si>
-  <si>
-    <t>1073614</t>
-  </si>
-  <si>
-    <t>1082573</t>
-  </si>
-  <si>
-    <t>1096846</t>
-  </si>
-  <si>
-    <t>1106688</t>
-  </si>
-  <si>
-    <t>1118979</t>
-  </si>
-  <si>
-    <t>1129111</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=17LNnIqntO0Kl6A1Eqv_8ALttsj0ACk6M</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1-XxCDEdzO52OuBDDtpZXi81vnccab6xE</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=18xwUR4qs3aJh9GZZBNsesci7zbd1KlVH</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1gcZT9V6QNZJJOjs_sGod1bRANffnLFyo</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1QT0rr76Ugi4vdc5LrXHEcwEIOSD-rNgL</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1VSEFWa-JhcU1ZI0aPFtJoIlVbnrjThs0</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1WJ7x_KBVaambXLO7s-bk9nsvUjuS-0yJ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1-pbvVctn2Pp3uL_sRumTlLa5WaCJTIs3</t>
   </si>
 </sst>
 </file>
@@ -183,16 +135,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -209,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,17 +461,17 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,152 +482,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>893370</v>
       </c>
       <c r="B2">
-        <v>560914</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>778488</v>
       </c>
       <c r="B3">
-        <v>560914</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>892102</v>
       </c>
       <c r="B4">
-        <v>560914</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>264097</v>
       </c>
       <c r="B5">
-        <v>560914</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>310037</v>
       </c>
       <c r="B6">
-        <v>560914</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>290260</v>
       </c>
       <c r="B7">
-        <v>560914</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>605414</v>
       </c>
       <c r="B8">
-        <v>560914</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>820430</v>
       </c>
       <c r="B9">
-        <v>560914</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>583309</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>560914</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>560914</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>560914</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>560914</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{13799125-9D9D-4C07-9202-26CB7E636DAA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{485C225F-0EA9-4902-9023-CBEA630A7B0D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{421F80EC-6949-46B8-8EF5-5B0D9FD9149A}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{5C02236B-CF31-4BBE-8C56-D7E1EC846D84}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{576CD57B-6E76-40EC-9BCE-8534D41D9DF2}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{9F453030-452B-4F82-A2F2-A8CB280A41B8}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{A112C966-D35E-4176-8967-9113A26CDB8D}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{A647E3D5-029E-4627-95F8-09359C69F914}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{03318B36-30EA-4C60-8010-C68CFFCFC179}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{0392E514-2D65-4874-A04E-8287246E715A}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{CF834F97-2A33-468F-9CCC-B32A4410F643}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{E1B851DE-5970-4C62-92A5-A24118E56CCA}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7AC9C327-E497-9347-948A-9455389837B8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D410BC08-F519-7F43-A879-4A806B7D6893}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{019A41C2-73F8-A048-BCE3-1B71F66F86C7}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7C3FD944-158C-7C48-93C6-10F2C47FE091}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{315F3201-3082-9C43-9624-7165CFD57A8E}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7EFBC0D9-3833-0947-BFCC-4DC0B0DA9EC6}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{6ADD42C1-C4DD-0F4A-8B24-976B0A7BA816}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{54E009E2-4A1C-DF43-8F61-A71FF56029B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/DATA POST GAMBAR.xlsx
+++ b/temp_doc/DATA POST GAMBAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E6D35-0254-3847-8C4D-1E8508362D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD887B-10CA-4A40-A07A-098286CD398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id_gambar_post</t>
   </si>
@@ -47,28 +47,25 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=17LNnIqntO0Kl6A1Eqv_8ALttsj0ACk6M</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1-XxCDEdzO52OuBDDtpZXi81vnccab6xE</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=18xwUR4qs3aJh9GZZBNsesci7zbd1KlVH</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1gcZT9V6QNZJJOjs_sGod1bRANffnLFyo</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1QT0rr76Ugi4vdc5LrXHEcwEIOSD-rNgL</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1VSEFWa-JhcU1ZI0aPFtJoIlVbnrjThs0</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1WJ7x_KBVaambXLO7s-bk9nsvUjuS-0yJ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1-pbvVctn2Pp3uL_sRumTlLa5WaCJTIs3</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=1Q1rJZ-HeuYii7iGVJIoaafXMNDWP90S4</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1ZOgoCWmC5E3b9C9kOXpqgnuF7Ot9eqp8</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1fxUTM7gAN0nJPE-0aIlfw-tNMmx16qzr</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1MMwgcg4MPCSI779va1-sQ97lypejpiQL</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1oEmfgTEUE79PBZHzowU46df0FgNhGGHv</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1x5HnOrHOfe03QXkBEROzBly3_mYTSfmU</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1nmOLmjsjzQ7koO2FEXKf-NzQb38YwkbN</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -484,10 +481,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>893370</v>
+        <v>100001</v>
       </c>
       <c r="B2">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -495,10 +492,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>778488</v>
+        <v>100002</v>
       </c>
       <c r="B3">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -506,10 +503,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>892102</v>
+        <v>100003</v>
       </c>
       <c r="B4">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -517,10 +514,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>264097</v>
+        <v>100004</v>
       </c>
       <c r="B5">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -528,10 +525,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>310037</v>
+        <v>100005</v>
       </c>
       <c r="B6">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -539,10 +536,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>290260</v>
+        <v>100006</v>
       </c>
       <c r="B7">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -550,28 +547,20 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>605414</v>
+        <v>100007</v>
       </c>
       <c r="B8">
-        <v>583309</v>
+        <v>705954</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>820430</v>
-      </c>
-      <c r="B9">
-        <v>583309</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
@@ -584,14 +573,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7AC9C327-E497-9347-948A-9455389837B8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D410BC08-F519-7F43-A879-4A806B7D6893}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{019A41C2-73F8-A048-BCE3-1B71F66F86C7}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{7C3FD944-158C-7C48-93C6-10F2C47FE091}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{315F3201-3082-9C43-9624-7165CFD57A8E}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{7EFBC0D9-3833-0947-BFCC-4DC0B0DA9EC6}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{6ADD42C1-C4DD-0F4A-8B24-976B0A7BA816}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{54E009E2-4A1C-DF43-8F61-A71FF56029B0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A0D7F0D-D070-3746-A2F4-83DBAA6CD43C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8DCDEC16-D2D8-3F4F-8009-AC34A08B8D0F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{36B0824F-8729-1949-93D0-36659CC76F76}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{41579FEB-2233-4544-B5BE-38DC1D93606A}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{5204EA3C-1B00-5D41-9197-2DCF6F937FD8}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{79708B09-FAB8-1B48-9E33-934E75FBF514}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{33D24DB2-31F8-5945-89ED-C3EC962DFFDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/DATA POST GAMBAR.xlsx
+++ b/temp_doc/DATA POST GAMBAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD887B-10CA-4A40-A07A-098286CD398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8A2A0-EC63-AF4E-A5B8-6CBA372EAE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id_gambar_post</t>
   </si>
@@ -47,25 +47,46 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1Q1rJZ-HeuYii7iGVJIoaafXMNDWP90S4</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1ZOgoCWmC5E3b9C9kOXpqgnuF7Ot9eqp8</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1fxUTM7gAN0nJPE-0aIlfw-tNMmx16qzr</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1MMwgcg4MPCSI779va1-sQ97lypejpiQL</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1oEmfgTEUE79PBZHzowU46df0FgNhGGHv</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1x5HnOrHOfe03QXkBEROzBly3_mYTSfmU</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1nmOLmjsjzQ7koO2FEXKf-NzQb38YwkbN</t>
+    <t>https://drive.google.com/thumbnail?id=1oqbs0RR5xYPfG_C4OWYDqv0AGJq-uCPi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1RnO_2GbvkRw7M2c_R9jvR3suc1BGRZ6z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=11nLH5EsntoRbD-2C-a99TwTZ7zlb9cNC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1R2tqXSZhdQefNErs-CbHWZEv8TOa9hB_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1Te4ahy0BE9cgF8M-P9TX0J-PQgPLPBf-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1FX91Lub4k1li9DHwk1AfJXQRU1-FTvZU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1YRzvCP5pjsOSIMsUAhPbozPPM7cKcJia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1kuStP4rLryYYMr7K-WIIlwOtTRAw2fiU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1cV84mWU2RDS_J_zUoBiT9uwi3Ejxs4VU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1-oOPK4n9xfipM4_4UcITJwwtreU7lrEe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1On7HFoVb1r3dVLoIyu9cICzllLB70OOf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1HwkKUyPQtZeKvY11V6emlM59ZyNYaUME</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1n6IeZo2hAH-okg9CNlJW65kPeW05wSE4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=16DfWwF1PK_6kuEvBAOSJ5l6KGxkwigjL</t>
   </si>
 </sst>
 </file>
@@ -104,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -112,33 +133,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -159,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCF3E7-F394-4417-A6FD-80A620F61AC1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,6 +468,7 @@
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -481,105 +484,174 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100001</v>
+        <v>11380755</v>
       </c>
       <c r="B2">
-        <v>705954</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>100002</v>
+        <v>99633757</v>
       </c>
       <c r="B3">
-        <v>705954</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>100003</v>
+        <v>42861696</v>
       </c>
       <c r="B4">
-        <v>705954</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>100004</v>
+        <v>27713850</v>
       </c>
       <c r="B5">
-        <v>705954</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>100005</v>
+        <v>46718422</v>
       </c>
       <c r="B6">
-        <v>705954</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>100006</v>
+        <v>76888384</v>
       </c>
       <c r="B7">
-        <v>705954</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>100007</v>
+        <v>62775155</v>
       </c>
       <c r="B8">
-        <v>705954</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>469586</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="A9">
+        <v>34202877</v>
+      </c>
+      <c r="B9">
+        <v>469586</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>68688264</v>
+      </c>
+      <c r="B10">
+        <v>469586</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>94875026</v>
+      </c>
+      <c r="B11">
+        <v>469586</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>52519445</v>
+      </c>
+      <c r="B12">
+        <v>469586</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>89304880</v>
+      </c>
+      <c r="B13">
+        <v>469586</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>43657345</v>
+      </c>
+      <c r="B14">
+        <v>469586</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>31151306</v>
+      </c>
+      <c r="B15">
+        <v>469586</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A0D7F0D-D070-3746-A2F4-83DBAA6CD43C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8DCDEC16-D2D8-3F4F-8009-AC34A08B8D0F}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{36B0824F-8729-1949-93D0-36659CC76F76}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{41579FEB-2233-4544-B5BE-38DC1D93606A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{5204EA3C-1B00-5D41-9197-2DCF6F937FD8}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{79708B09-FAB8-1B48-9E33-934E75FBF514}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{33D24DB2-31F8-5945-89ED-C3EC962DFFDB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4F8ECCA7-283A-5D46-8EEA-BF8DA5214397}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{50F08F86-9B11-124B-95E3-227DA06274D1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{5D242F59-B43D-AD47-9001-AE42C3F70819}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6013CFE2-FF26-6149-B072-E371AD86729F}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{0B52854B-C216-5946-8C43-C8286AA8A77C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4222F47C-E42D-454A-9E48-E95D4241BA9A}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{FD080548-67EF-A846-920F-F5B55B4DFBA6}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{806CD3B8-DE21-074A-B893-F9359AAE5176}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{4E45042C-213D-3B4E-9E00-06B668775AEC}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{F69F2A35-6F16-4648-856D-D7B7C78DE080}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{7A72EF19-C9CA-F847-80BE-5BA84FF96BAE}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{0681CF2A-C31A-584C-8260-AFBB55EA6A58}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{94C0FC43-D59B-C044-80AB-AA932177AF28}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{36A161C3-30BB-8846-9A47-03510DD7B649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/DATA POST GAMBAR.xlsx
+++ b/temp_doc/DATA POST GAMBAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8A2A0-EC63-AF4E-A5B8-6CBA372EAE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CACA90-FA65-BF40-9A51-25EEBA97B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F5AE222B-680B-43AE-86B1-AD8B093413FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id_gambar_post</t>
   </si>
@@ -47,53 +47,101 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>https://drive.google.com/thumbnail?id=1oqbs0RR5xYPfG_C4OWYDqv0AGJq-uCPi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1RnO_2GbvkRw7M2c_R9jvR3suc1BGRZ6z</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=11nLH5EsntoRbD-2C-a99TwTZ7zlb9cNC</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1R2tqXSZhdQefNErs-CbHWZEv8TOa9hB_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1Te4ahy0BE9cgF8M-P9TX0J-PQgPLPBf-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1FX91Lub4k1li9DHwk1AfJXQRU1-FTvZU</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1YRzvCP5pjsOSIMsUAhPbozPPM7cKcJia</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1kuStP4rLryYYMr7K-WIIlwOtTRAw2fiU</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1cV84mWU2RDS_J_zUoBiT9uwi3Ejxs4VU</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1-oOPK4n9xfipM4_4UcITJwwtreU7lrEe</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1On7HFoVb1r3dVLoIyu9cICzllLB70OOf</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1HwkKUyPQtZeKvY11V6emlM59ZyNYaUME</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=1n6IeZo2hAH-okg9CNlJW65kPeW05wSE4</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/thumbnail?id=16DfWwF1PK_6kuEvBAOSJ5l6KGxkwigjL</t>
+    <t>https://drive.google.com/thumbnail?id=1ulwplFCWXBxCiYdRBVw5rsBWGsHoTqoa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1rXUa52CwwvjYPaMyK5SHb0ir9V4pLTDp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1BFnfjS5iIoapWUIm2RO852z5_kCkqtpU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=11udR_Itgq2tXTIzHzMY0iV8bON1Q0GIx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1wfxO8juUYYVDpBhj39jAcRtNZGqpUouA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1S3aKT9zg-630OrH5niZg_0cAGa29WVf8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1PFR8mo0EMbFnuYhrBRTqaP93cmP-mSI1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1yCDO36fQT5fzRWtj3ctTxbtfMCduOONg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1yRX0VGnoE8-XbArz35t84umr1C70J4_E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1SMJ5T6TplYzPOFDKpqF0SRRJ28tnCV2b</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1ixJoQELsuDR5hDbAjngCHjmvaJUqAB32</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1YheK5OvphO690ZSmGVi8QvRYhMYr2KjC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1SoNGPhV0RywS39V2Z4IbqW8jQ-dyMeZk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1Dq6tC4c4xJlh5BoMTCqn1NYTMqVa1CTM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1OItyhdaCW1GSc2a3w9y_qvUxkO1K0qfl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1TaweXtWPi2dIorzeWq8nABh1o-Fcb6vH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1feiQNyGlunaCBNWmj40q8tUl1UQTJnGK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1LFZC0hi8bU3Wub9tw2qwlgYe8hvz4MGh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1EA_y_iLJ-8GfJJE_6JbzxeOuWUHuqzP_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1xt-rHhRjDu1yrbh2RJvLJ97f2YpMD2G2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1eC8oGEDByQB5v384rAnSQSM90xKl5Jj2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1vC7ShWeXCzlwKtfENseVwSAwq96Fw8Od</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1a0G8MYReDH24py1nCkf-wbc5AJyIE2qw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=13RQKZVotGcB4dBRfTzzK_MkKx1K_V1EB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1A3ki4EMsj2FHpV9TABs_fUVeFqYeop5A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1RrggUb-kyyiEgSGec0dkmsaoMcVyznDD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1UQ_bb94grFtr4HBmFgjEQoo3WHGZ2Vuv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1cDw7jBAMg2nfJFXvTnuowKFrBILsC3vb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1sQX4U78ulRjUtjFWzJICfaCYLsZoy7cb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1xPPNjIOZYfpw3n-HAVSuKIs2B_IbliJG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +155,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,17 +174,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCF3E7-F394-4417-A6FD-80A620F61AC1}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -484,175 +521,335 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>11380755</v>
+        <v>56277585</v>
       </c>
       <c r="B2">
-        <v>469586</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>99633757</v>
+        <v>42979281</v>
       </c>
       <c r="B3">
-        <v>469586</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>42861696</v>
+        <v>52582529</v>
       </c>
       <c r="B4">
-        <v>469586</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>27713850</v>
+        <v>98029648</v>
       </c>
       <c r="B5">
-        <v>469586</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>46718422</v>
+        <v>89805878</v>
       </c>
       <c r="B6">
-        <v>469586</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>76888384</v>
+        <v>57677573</v>
       </c>
       <c r="B7">
-        <v>469586</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>62775155</v>
+        <v>58396728</v>
       </c>
       <c r="B8">
-        <v>469586</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>34202877</v>
+        <v>39514184</v>
       </c>
       <c r="B9">
-        <v>469586</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>68688264</v>
+        <v>34823164</v>
       </c>
       <c r="B10">
-        <v>469586</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>94875026</v>
+        <v>41745948</v>
       </c>
       <c r="B11">
-        <v>469586</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>52519445</v>
+        <v>74875482</v>
       </c>
       <c r="B12">
-        <v>469586</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>89304880</v>
+        <v>19408186</v>
       </c>
       <c r="B13">
-        <v>469586</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>43657345</v>
+        <v>19049113</v>
       </c>
       <c r="B14">
-        <v>469586</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>31151306</v>
+        <v>57096806</v>
       </c>
       <c r="B15">
-        <v>469586</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>443490</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20515637</v>
+      </c>
+      <c r="B16">
+        <v>443490</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>55460864</v>
+      </c>
+      <c r="B17">
+        <v>443490</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29614741</v>
+      </c>
+      <c r="B18">
+        <v>443490</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>96653588</v>
+      </c>
+      <c r="B19">
+        <v>443490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>87227427</v>
+      </c>
+      <c r="B20">
+        <v>443490</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>59994892</v>
+      </c>
+      <c r="B21">
+        <v>443490</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>34694639</v>
+      </c>
+      <c r="B22">
+        <v>443490</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>42669739</v>
+      </c>
+      <c r="B23">
+        <v>443490</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>48298991</v>
+      </c>
+      <c r="B24">
+        <v>443490</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>79875836</v>
+      </c>
+      <c r="B25">
+        <v>443490</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>12299910</v>
+      </c>
+      <c r="B26">
+        <v>443490</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>91252184</v>
+      </c>
+      <c r="B27">
+        <v>443490</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>73167452</v>
+      </c>
+      <c r="B28">
+        <v>443490</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>69508772</v>
+      </c>
+      <c r="B29">
+        <v>443490</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>91431284</v>
+      </c>
+      <c r="B30">
+        <v>443490</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>96655439</v>
+      </c>
+      <c r="B31">
+        <v>443490</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4F8ECCA7-283A-5D46-8EEA-BF8DA5214397}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{50F08F86-9B11-124B-95E3-227DA06274D1}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{5D242F59-B43D-AD47-9001-AE42C3F70819}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6013CFE2-FF26-6149-B072-E371AD86729F}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{0B52854B-C216-5946-8C43-C8286AA8A77C}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{4222F47C-E42D-454A-9E48-E95D4241BA9A}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{FD080548-67EF-A846-920F-F5B55B4DFBA6}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{806CD3B8-DE21-074A-B893-F9359AAE5176}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{4E45042C-213D-3B4E-9E00-06B668775AEC}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{F69F2A35-6F16-4648-856D-D7B7C78DE080}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{7A72EF19-C9CA-F847-80BE-5BA84FF96BAE}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{0681CF2A-C31A-584C-8260-AFBB55EA6A58}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{94C0FC43-D59B-C044-80AB-AA932177AF28}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{36A161C3-30BB-8846-9A47-03510DD7B649}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>